--- a/dictionary/한국어기초사전/동사_높임말.xlsx
+++ b/dictionary/한국어기초사전/동사_높임말.xlsx
@@ -12,6 +12,81 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>데리다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모시다
+</t>
+  </si>
+  <si>
+    <t>먹다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자시다
+</t>
+  </si>
+  <si>
+    <t>문안하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문안드리다
+</t>
+  </si>
+  <si>
+    <t>받다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">받잡다
+</t>
+  </si>
+  <si>
+    <t>사과하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사과드리다
+</t>
+  </si>
+  <si>
+    <t>있다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">계시다1
+</t>
+  </si>
+  <si>
+    <t>자다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주무시다
+</t>
+  </si>
+  <si>
+    <t>잡수다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잡수시다
+</t>
+  </si>
+  <si>
+    <t>주다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드리다1
+</t>
+  </si>
+  <si>
+    <t>죽다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">돌아가다
+</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,134 +428,84 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>데리다</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">모시다
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>먹다</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">자시다
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>문안하다</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">문안드리다
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>받다</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">받잡다
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>사과하다</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">사과드리다
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>있다</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">계시다1
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>자다</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">주무시다
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>잡수다</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">잡수시다
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>주다</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">드리다1
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>죽다</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">돌아가다
-</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
